--- a/lista1.xlsx
+++ b/lista1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\projeto-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A817C181-C6D6-4BEA-AF12-9F2F2D6C77F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB19A39-BD19-42B0-8C1A-C533E654C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,12 +19,11 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$D$85</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="226">
   <si>
     <t>Filmes</t>
   </si>
@@ -674,9 +673,6 @@
     <t>https://drive.google.com/drive/u/0/folders/1p9Z6G9a3I0eT_xYelLwvXuVIga7XCKTQ</t>
   </si>
   <si>
-    <t>Verificar depois atualizado</t>
-  </si>
-  <si>
     <t>https://drive.google.com/drive/u/0/folders/12RGzVeY7qAGefKWCMbdm49uq6aTS9hor</t>
   </si>
   <si>
@@ -702,6 +698,9 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/12geD2-NXMTtfdEYihmMRYlJFb2oGkAfz/view</t>
+  </si>
+  <si>
+    <t>Retirado depois colocar</t>
   </si>
 </sst>
 </file>
@@ -941,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -980,6 +979,7 @@
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A84" sqref="A84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1605,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1701,7 +1701,7 @@
         <v>9</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1743,7 +1743,7 @@
         <v>9</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1837,7 +1837,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1851,7 +1851,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2009,11 +2009,11 @@
         <v>127</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="C59" s="16"/>
       <c r="D59" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2160,10 +2160,12 @@
       <c r="A70" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="5"/>
+      <c r="B70" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="32" t="s">
+        <v>9</v>
+      </c>
       <c r="D70" s="6" t="s">
         <v>149</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>9</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2291,7 +2293,7 @@
         <v>9</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2483,7 +2485,7 @@
         <v>9</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/lista1.xlsx
+++ b/lista1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projetos\projeto-site\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB19A39-BD19-42B0-8C1A-C533E654C9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEDEAB7-BB3E-4B96-B276-76ACEDE9B5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="225">
   <si>
     <t>Filmes</t>
   </si>
@@ -139,12 +139,6 @@
     <t>Armadilha</t>
   </si>
   <si>
-    <t>Imagem de cinema</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/drive/u/0/folders/1yLx1q6W55cBsV2Sql0y9vD3uWBTFKSAU</t>
-  </si>
-  <si>
     <t>As ondas</t>
   </si>
   <si>
@@ -701,6 +695,9 @@
   </si>
   <si>
     <t>Retirado depois colocar</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19PNpAHaX86vqOCQggpCc3b2UikYBBIwl/view?t=234</t>
   </si>
 </sst>
 </file>
@@ -810,7 +807,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -855,12 +852,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFFFBF00"/>
       </patternFill>
@@ -881,6 +872,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FFFF4000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFFBF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF81D41A"/>
       </patternFill>
     </fill>
   </fills>
@@ -940,7 +949,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -963,8 +972,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -973,13 +980,19 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -1198,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1258,10 +1271,10 @@
       <c r="A4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="B4" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" s="32"/>
       <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
@@ -1382,10 +1395,10 @@
       <c r="A13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="5"/>
+      <c r="B13" s="31" t="s">
+        <v>223</v>
+      </c>
+      <c r="C13" s="32"/>
       <c r="D13" s="6" t="s">
         <v>34</v>
       </c>
@@ -1408,29 +1421,31 @@
       <c r="A15" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6" t="s">
-        <v>39</v>
+      <c r="B15" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>28</v>
@@ -1439,12 +1454,12 @@
         <v>9</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>28</v>
@@ -1453,52 +1468,52 @@
         <v>9</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>8</v>
@@ -1507,12 +1522,12 @@
         <v>9</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>8</v>
@@ -1521,12 +1536,12 @@
         <v>9</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B24" s="7" t="s">
         <v>8</v>
@@ -1535,12 +1550,12 @@
         <v>9</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>8</v>
@@ -1549,12 +1564,12 @@
         <v>9</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>8</v>
@@ -1563,12 +1578,12 @@
         <v>9</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B27" s="7" t="s">
         <v>8</v>
@@ -1577,12 +1592,12 @@
         <v>9</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>8</v>
@@ -1591,26 +1606,26 @@
         <v>9</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>8</v>
@@ -1619,24 +1634,24 @@
         <v>9</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B31" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" s="7" t="s">
         <v>8</v>
@@ -1645,12 +1660,12 @@
         <v>9</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B33" s="7" t="s">
         <v>8</v>
@@ -1659,12 +1674,12 @@
         <v>9</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B34" s="7" t="s">
         <v>8</v>
@@ -1673,12 +1688,12 @@
         <v>9</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B35" s="7" t="s">
         <v>8</v>
@@ -1687,26 +1702,26 @@
         <v>9</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>8</v>
@@ -1715,12 +1730,12 @@
         <v>9</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B38" s="7" t="s">
         <v>8</v>
@@ -1729,26 +1744,26 @@
         <v>9</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="26" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B40" s="7" t="s">
         <v>8</v>
@@ -1757,12 +1772,12 @@
         <v>9</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" s="7" t="s">
         <v>8</v>
@@ -1771,12 +1786,12 @@
         <v>9</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42" s="7" t="s">
         <v>8</v>
@@ -1785,36 +1800,36 @@
         <v>9</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="6" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B45" s="7" t="s">
         <v>8</v>
@@ -1823,52 +1838,52 @@
         <v>9</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" s="15" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B49" s="7" t="s">
         <v>8</v>
@@ -1877,12 +1892,12 @@
         <v>9</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B50" s="7" t="s">
         <v>8</v>
@@ -1891,12 +1906,12 @@
         <v>9</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B51" s="7" t="s">
         <v>8</v>
@@ -1905,12 +1920,12 @@
         <v>9</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B52" s="7" t="s">
         <v>8</v>
@@ -1919,12 +1934,12 @@
         <v>9</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B53" s="7" t="s">
         <v>8</v>
@@ -1933,12 +1948,12 @@
         <v>9</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B54" s="7" t="s">
         <v>8</v>
@@ -1947,12 +1962,12 @@
         <v>9</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B55" s="7" t="s">
         <v>8</v>
@@ -1961,12 +1976,12 @@
         <v>9</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B56" s="7" t="s">
         <v>8</v>
@@ -1975,12 +1990,12 @@
         <v>25</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B57" s="7" t="s">
         <v>8</v>
@@ -1989,50 +2004,50 @@
         <v>9</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C58" s="11"/>
+        <v>123</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C58" s="34"/>
       <c r="D58" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B59" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="C59" s="16"/>
+        <v>125</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C59" s="34"/>
       <c r="D59" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C60" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B61" s="7" t="s">
         <v>8</v>
@@ -2041,12 +2056,12 @@
         <v>9</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B62" s="7" t="s">
         <v>8</v>
@@ -2055,12 +2070,12 @@
         <v>9</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B63" s="7" t="s">
         <v>8</v>
@@ -2069,12 +2084,12 @@
         <v>9</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B64" s="7" t="s">
         <v>8</v>
@@ -2083,12 +2098,12 @@
         <v>25</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B65" s="7" t="s">
         <v>8</v>
@@ -2097,12 +2112,12 @@
         <v>9</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>8</v>
@@ -2111,12 +2126,12 @@
         <v>9</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B67" s="7" t="s">
         <v>8</v>
@@ -2125,12 +2140,12 @@
         <v>9</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B68" s="7" t="s">
         <v>8</v>
@@ -2139,12 +2154,12 @@
         <v>9</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="10" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B69" s="7" t="s">
         <v>28</v>
@@ -2153,26 +2168,26 @@
         <v>9</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B70" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C70" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B71" s="7" t="s">
         <v>8</v>
@@ -2181,12 +2196,12 @@
         <v>9</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B72" s="7" t="s">
         <v>8</v>
@@ -2195,12 +2210,12 @@
         <v>9</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B73" s="7" t="s">
         <v>28</v>
@@ -2209,12 +2224,12 @@
         <v>9</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B74" s="7" t="s">
         <v>8</v>
@@ -2223,12 +2238,12 @@
         <v>9</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>8</v>
@@ -2237,26 +2252,26 @@
         <v>25</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B76" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>218</v>
+        <v>158</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77" s="7" t="s">
         <v>8</v>
@@ -2265,12 +2280,12 @@
         <v>9</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B78" s="7" t="s">
         <v>8</v>
@@ -2279,26 +2294,26 @@
         <v>9</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="B79" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="29" t="s">
+      <c r="C79" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80" s="7" t="s">
         <v>8</v>
@@ -2307,12 +2322,12 @@
         <v>9</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B81" s="7" t="s">
         <v>8</v>
@@ -2321,12 +2336,12 @@
         <v>9</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="8" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B82" s="7" t="s">
         <v>28</v>
@@ -2335,12 +2350,12 @@
         <v>9</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B83" s="7" t="s">
         <v>8</v>
@@ -2349,38 +2364,36 @@
         <v>9</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="8" t="s">
-        <v>176</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>9</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="B85" s="35" t="s">
+        <v>223</v>
+      </c>
+      <c r="C85" s="36"/>
       <c r="D85" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="10" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>8</v>
@@ -2389,12 +2402,12 @@
         <v>9</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B87" s="7" t="s">
         <v>8</v>
@@ -2403,12 +2416,12 @@
         <v>9</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="10" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B88" s="7" t="s">
         <v>8</v>
@@ -2417,24 +2430,24 @@
         <v>9</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="10" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>8</v>
@@ -2443,12 +2456,12 @@
         <v>9</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="10" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B91" s="7" t="s">
         <v>8</v>
@@ -2457,12 +2470,12 @@
         <v>9</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="10" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B92" s="7" t="s">
         <v>8</v>
@@ -2471,26 +2484,26 @@
         <v>9</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="B93" s="30" t="s">
+        <v>190</v>
+      </c>
+      <c r="B93" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="C93" s="30" t="s">
+      <c r="C93" s="28" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B94" s="7" t="s">
         <v>8</v>
@@ -2499,12 +2512,12 @@
         <v>9</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="10" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B95" s="7" t="s">
         <v>8</v>
@@ -2513,12 +2526,12 @@
         <v>9</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B96" s="7" t="s">
         <v>8</v>
@@ -2527,12 +2540,12 @@
         <v>9</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="10" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B97" s="7" t="s">
         <v>8</v>
@@ -2541,12 +2554,12 @@
         <v>9</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B98" s="7" t="s">
         <v>8</v>
@@ -2555,12 +2568,12 @@
         <v>9</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="10" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B99" s="7" t="s">
         <v>8</v>
@@ -2569,85 +2582,85 @@
         <v>9</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="10" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B100" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="6" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B101" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B102" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="19" t="s">
+      <c r="D103" s="19" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="20" t="s">
         <v>211</v>
       </c>
-      <c r="B103" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="20" t="s">
+      <c r="B104" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D104" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="D103" s="21" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="B104" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>214</v>
-      </c>
     </row>
     <row r="105" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="25" t="s">
-        <v>190</v>
-      </c>
-      <c r="B105" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="D105" s="27" t="s">
-        <v>191</v>
+      <c r="A105" s="23" t="s">
+        <v>188</v>
+      </c>
+      <c r="B105" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="25" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2655,7 +2668,9 @@
       <c r="D107" s="14"/>
     </row>
     <row r="108" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="109" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B109" s="14"/>
+    </row>
     <row r="110" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="111" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="112" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
